--- a/rpgdemo/xlsxs/skills.xlsx
+++ b/rpgdemo/xlsxs/skills.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C14586B-2146-447C-8109-4003EA608FDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="3060" windowWidth="21720" windowHeight="13620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@主动技能表" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
   <si>
     <t>技能名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,15 +311,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id[!.][funcInt]</t>
+    <t>id[.!][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击:normal_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name[$.][funcStr]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能攻击:skill_attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -334,6 +351,12 @@
       <color rgb="FF006100"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -363,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -388,6 +411,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -464,6 +494,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -788,15 +826,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="19.75" style="1" customWidth="1"/>
@@ -808,14 +846,14 @@
     <col min="8" max="9" width="14" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25">
+    <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -834,7 +872,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -863,7 +901,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -886,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -900,7 +938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -914,7 +952,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -928,7 +966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -942,12 +980,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
+      <c r="B8" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="C8" s="2">
         <v>5000101</v>
@@ -956,7 +994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -970,7 +1008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -987,20 +1025,20 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="2" max="3" width="7.5" style="4" bestFit="1" customWidth="1"/>
@@ -1012,7 +1050,7 @@
     <col min="15" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>51</v>
       </c>
@@ -1029,7 +1067,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1068,14 +1106,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
@@ -1086,7 +1124,7 @@
     <col min="37" max="37" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>51</v>
       </c>
@@ -1109,7 +1147,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1170,21 +1208,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>51</v>
       </c>
@@ -1192,7 +1230,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1305,36 +1343,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A2:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
